--- a/db/tables.xlsx
+++ b/db/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1312\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C53137-8CE2-4D84-9337-706E276292EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1551" documentId="8_{501ECF5A-0DDC-46CA-85D3-812B245B1612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3403566D-A035-4E08-9BF0-4522AE7DFB1F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="11340" activeTab="2" xr2:uid="{735B34E6-86B0-45EA-ABE5-4B2074435C45}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="11340" firstSheet="2" activeTab="1" xr2:uid="{735B34E6-86B0-45EA-ABE5-4B2074435C45}"/>
   </bookViews>
   <sheets>
     <sheet name="Malls" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Promotions" sheetId="9" r:id="rId3"/>
     <sheet name="Cuisine Types" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="533">
   <si>
     <t>mid</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>ad</t>
+  </si>
+  <si>
+    <t>rating</t>
   </si>
   <si>
     <t>Brotzeit German Bier Bar &amp; Restaurant</t>
@@ -2192,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1E4FFF-6CE1-4633-A3AA-D4F386E6FCD1}">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2213,7 +2216,7 @@
     <col min="12" max="12" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -2253,8 +2256,11 @@
       <c r="M1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2262,40 +2268,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2303,37 +2312,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="28.5" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="N3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.5" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2341,37 +2353,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="27" customHeight="1">
+        <v>49</v>
+      </c>
+      <c r="N4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2379,37 +2394,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N5">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2417,37 +2435,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="25.5" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="N6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="25.5" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2455,37 +2476,40 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N7">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2493,37 +2517,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="23.25" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="N8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="23.25" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2531,37 +2558,40 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="23.25" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="N9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="23.25" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2569,37 +2599,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="29.25" customHeight="1">
+        <v>49</v>
+      </c>
+      <c r="N10">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="29.25" customHeight="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2607,37 +2640,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2645,37 +2681,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="28.5" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="N12">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="28.5" customHeight="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2683,37 +2722,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N13">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2721,37 +2763,40 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N14">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2759,37 +2804,40 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="29.25" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="N15">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="29.25" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2797,34 +2845,37 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N16">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2832,37 +2883,40 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N17">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2870,37 +2924,40 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N18">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2908,37 +2965,40 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N19">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2946,37 +3006,40 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N20">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2984,37 +3047,40 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N21">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3022,40 +3088,43 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N22">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3063,40 +3132,43 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N23">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3104,40 +3176,43 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N24">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3145,40 +3220,43 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N25">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3186,34 +3264,37 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N26">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3221,34 +3302,37 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3256,34 +3340,37 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N28">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3291,34 +3378,37 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N29">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3326,37 +3416,40 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N30">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3364,37 +3457,40 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N31">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3402,37 +3498,40 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N32">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3440,37 +3539,40 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N33">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3478,37 +3580,40 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N34">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3516,37 +3621,40 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N35">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3554,37 +3662,40 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J36" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K36" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N36">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3592,37 +3703,40 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N37">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3630,34 +3744,37 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N38">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3665,34 +3782,37 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N39">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3700,37 +3820,40 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H40" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J40" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K40" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N40">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3738,34 +3861,37 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N41">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3773,37 +3899,40 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K42" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N42">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3811,37 +3940,40 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J43" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N43">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3849,34 +3981,37 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J44" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K44" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N44">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3884,34 +4019,37 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D45" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K45" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N45">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3919,37 +4057,40 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N46">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3957,37 +4098,40 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J47" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K47" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N47">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3995,37 +4139,40 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D48" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H48" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J48" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K48" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N48">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4033,34 +4180,37 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J49" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K49" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N49">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4068,37 +4218,40 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D50" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H50" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J50" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N50">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4106,34 +4259,37 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J51" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K51" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N51">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4141,37 +4297,40 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H52" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J52" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N52">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4179,37 +4338,40 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H53" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J53" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K53" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N53">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4217,37 +4379,40 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H54" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J54" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K54" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N54">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4255,34 +4420,37 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J55" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N55">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4290,37 +4458,40 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H56" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N56">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4328,34 +4499,37 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J57" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N57">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4363,37 +4537,40 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D58" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H58" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J58" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N58">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4401,37 +4578,40 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H59" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J59" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N59">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4439,37 +4619,40 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H60" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J60" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N60">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4477,37 +4660,40 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H61" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J61" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N61">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4515,40 +4701,43 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H62" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J62" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M62" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N62">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4556,37 +4745,40 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H63" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I63" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J63" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M63" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N63">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4594,34 +4786,37 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D64" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J64" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N64">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4629,37 +4824,40 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H65" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J65" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M65" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N65">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4667,37 +4865,40 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G66" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H66" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J66" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K66" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M66" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N66">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4705,37 +4906,40 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H67" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I67" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J67" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K67" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N67">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4743,37 +4947,40 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G68" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H68" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J68" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K68" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M68" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N68">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4781,37 +4988,40 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G69" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J69" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K69" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M69" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N69">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4819,37 +5029,40 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G70" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H70" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I70" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J70" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K70" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M70" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N70">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4857,37 +5070,40 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H71" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I71" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J71" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K71" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N71">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4895,34 +5111,37 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J72" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K72" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M72" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N72">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4930,34 +5149,37 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G73" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J73" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K73" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M73" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N73">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4965,37 +5187,40 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G74" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H74" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J74" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K74" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M74" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N74">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5003,34 +5228,37 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D75" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G75" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I75" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J75" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K75" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M75" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N75">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5038,37 +5266,40 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G76" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H76" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J76" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K76" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N76">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5076,37 +5307,40 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H77" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J77" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K77" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N77">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5114,37 +5348,40 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G78" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H78" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J78" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K78" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M78" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N78">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5152,37 +5389,40 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G79" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H79" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J79" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K79" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M79" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N79">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5190,37 +5430,40 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G80" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H80" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I80" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J80" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K80" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M80" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N80">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5228,37 +5471,40 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D81" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G81" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H81" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I81" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J81" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K81" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M81" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N81">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5266,45 +5512,48 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D82" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G82" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H82" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I82" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J82" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="N82">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="G83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:14">
       <c r="G84"/>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:14">
       <c r="G85"/>
       <c r="J85"/>
     </row>
@@ -5343,7 +5592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D87FA1A-DC54-42A4-B4F2-E1ABB3022BAE}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -5356,19 +5605,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5379,13 +5628,13 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5396,13 +5645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5413,13 +5662,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5430,13 +5679,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5447,13 +5696,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5464,13 +5713,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5481,13 +5730,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5498,13 +5747,13 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5515,13 +5764,13 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5532,13 +5781,13 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D11" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E11" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5549,13 +5798,13 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5566,13 +5815,13 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D13" t="s">
+        <v>480</v>
+      </c>
+      <c r="E13" t="s">
         <v>479</v>
-      </c>
-      <c r="E13" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5583,13 +5832,13 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5600,13 +5849,13 @@
         <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E15" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5617,13 +5866,13 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D16" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E16" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5634,13 +5883,13 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D17" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E17" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5651,13 +5900,13 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E18" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5668,13 +5917,13 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D19" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E19" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5685,13 +5934,13 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D20" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E20" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5702,13 +5951,13 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D21" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E21" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5719,13 +5968,13 @@
         <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D22" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5736,13 +5985,13 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D23" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E23" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5753,13 +6002,13 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D24" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E24" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5770,13 +6019,13 @@
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D25" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E25" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5787,13 +6036,13 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D26" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E26" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5804,13 +6053,13 @@
         <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D27" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E27" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5821,13 +6070,13 @@
         <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D28" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E28" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5838,13 +6087,13 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D29" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E29" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5855,13 +6104,13 @@
         <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D30" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E30" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5872,13 +6121,13 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D31" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E31" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5889,13 +6138,13 @@
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D32" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E32" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5906,13 +6155,13 @@
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D33" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E33" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5923,13 +6172,13 @@
         <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D34" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E34" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5940,13 +6189,13 @@
         <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D35" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E35" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5957,13 +6206,13 @@
         <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D36" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E36" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -5974,13 +6223,13 @@
         <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D37" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E37" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -5991,13 +6240,13 @@
         <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D38" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E38" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6008,13 +6257,13 @@
         <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D39" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E39" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -6038,10 +6287,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6049,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6057,7 +6306,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6065,7 +6314,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6073,7 +6322,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6081,7 +6330,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6089,7 +6338,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6097,7 +6346,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6105,7 +6354,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6113,7 +6362,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6121,7 +6370,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6129,7 +6378,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
